--- a/output/PA73405 - Attrition by Job 2009 - Human Resources - 2019-02-17.xlsx
+++ b/output/PA73405 - Attrition by Job 2009 - Human Resources - 2019-02-17.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -42,6 +42,12 @@
     <t xml:space="preserve">15.8%</t>
   </si>
   <si>
+    <t xml:space="preserve">Regional Leader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Administrative Assistant</t>
   </si>
   <si>
@@ -52,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">Consultant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department Leader</t>
   </si>
   <si>
     <t xml:space="preserve">Project Manager</t>
@@ -131,8 +140,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F6" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:F6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F8" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:F8"/>
   <tableColumns count="6">
     <tableColumn id="1" name="year"/>
     <tableColumn id="2" name="job_name"/>
@@ -488,10 +497,10 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>14</v>
@@ -508,16 +517,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +534,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +554,59 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="n">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -582,37 +631,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
